--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f15af156e68905c6/Escritorio/Cafiagro Progra/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jersondavidsanchez/PycharmProjects/web-cafiagro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{0F849FAA-495D-4CF0-9D20-5C5A49F26926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64BE5930-8C75-4B45-A50A-BE46B6FC0F1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56933822-B321-E740-870E-A9DF515F0D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1200" windowWidth="16200" windowHeight="10060" xr2:uid="{248F28A4-9119-4F58-BF02-7C88DEE08585}"/>
+    <workbookView xWindow="3420" yWindow="1200" windowWidth="24240" windowHeight="15540" xr2:uid="{248F28A4-9119-4F58-BF02-7C88DEE08585}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -405,12 +405,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12345</v>
       </c>

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jersondavidsanchez/PycharmProjects/web-cafiagro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f15af156e68905c6/Escritorio/Cafiagro Progra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56933822-B321-E740-870E-A9DF515F0D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{56933822-B321-E740-870E-A9DF515F0D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B401564-1E3C-4C0F-ACF9-327F65FF8352}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1200" windowWidth="24240" windowHeight="15540" xr2:uid="{248F28A4-9119-4F58-BF02-7C88DEE08585}"/>
+    <workbookView xWindow="390" yWindow="1200" windowWidth="16200" windowHeight="10060" xr2:uid="{248F28A4-9119-4F58-BF02-7C88DEE08585}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -402,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D46B30-E479-411E-9A3E-33B1E574F99E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>12345</v>
       </c>
@@ -430,6 +430,17 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>13123</v>
+      </c>
+      <c r="B3">
+        <v>2412</v>
+      </c>
+      <c r="C3">
+        <v>241241</v>
       </c>
     </row>
   </sheetData>

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jersondavidsanchez/PycharmProjects/web-cafiagro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56933822-B321-E740-870E-A9DF515F0D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EE843A-E900-5142-A440-80787491E7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1200" windowWidth="24240" windowHeight="15540" xr2:uid="{248F28A4-9119-4F58-BF02-7C88DEE08585}"/>
+    <workbookView xWindow="4560" yWindow="2460" windowWidth="24240" windowHeight="15540" xr2:uid="{248F28A4-9119-4F58-BF02-7C88DEE08585}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,28 +35,494 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>correo</t>
-  </si>
-  <si>
-    <t>telefono</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="158">
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>No DOC.</t>
+  </si>
+  <si>
+    <t>APELLIDO 1</t>
+  </si>
+  <si>
+    <t>APELLIDO 2</t>
+  </si>
+  <si>
+    <t>NOMBRE 1</t>
+  </si>
+  <si>
+    <t>NOMBRE 2</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>MUNICIPIO</t>
+  </si>
+  <si>
+    <t>CANT KILOS</t>
+  </si>
+  <si>
+    <t>MOJADO</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>RAMON</t>
+  </si>
+  <si>
+    <t>LAS ERAS</t>
+  </si>
+  <si>
+    <t>SAN ANGUSTIN</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>ALIRIO</t>
+  </si>
+  <si>
+    <t>LLANADA DE NARANJOS</t>
+  </si>
+  <si>
+    <t>RENZA</t>
+  </si>
+  <si>
+    <t>JOAQUI</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>LEONEL</t>
+  </si>
+  <si>
+    <t>SANTA CLARA</t>
+  </si>
+  <si>
+    <t>NARVAEZ</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>QUEBRADILLAS</t>
+  </si>
+  <si>
+    <t>QUINAYAS</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>EDINSON</t>
+  </si>
+  <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
+    <t>FEDERACION</t>
+  </si>
+  <si>
+    <t>BOLAÑOS</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>EL JABON</t>
+  </si>
+  <si>
+    <t>CORDOBA</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>ARGOTE</t>
+  </si>
+  <si>
+    <t>HENRY</t>
+  </si>
+  <si>
+    <t>VILLAREAL</t>
+  </si>
+  <si>
+    <t>TIMANA</t>
+  </si>
+  <si>
+    <t>ISAIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS SAUCES </t>
+  </si>
+  <si>
+    <t>SAMBONI</t>
+  </si>
+  <si>
+    <t>MAXIMO</t>
+  </si>
+  <si>
+    <t>AGUA BENDITA</t>
+  </si>
+  <si>
+    <t>TOBAR</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>ERNESTOR</t>
+  </si>
+  <si>
+    <t>LA ESTRELLA</t>
+  </si>
+  <si>
+    <t>CALDERON</t>
+  </si>
+  <si>
+    <t>PAREDES</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>ASTUDILLO</t>
+  </si>
+  <si>
+    <t>TUQUERRES</t>
+  </si>
+  <si>
+    <t>CEBERIANO</t>
+  </si>
+  <si>
+    <t>ALBAN</t>
+  </si>
+  <si>
+    <t>JENOY</t>
+  </si>
+  <si>
+    <t>JAIRO</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>MATANZAS</t>
+  </si>
+  <si>
+    <t>OCAMPO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>JOHN</t>
+  </si>
+  <si>
+    <t>FREDY</t>
+  </si>
+  <si>
+    <t>LEBAZA</t>
+  </si>
+  <si>
+    <t>GUACA</t>
+  </si>
+  <si>
+    <t>BETSABE</t>
+  </si>
+  <si>
+    <t>LABADEROS</t>
+  </si>
+  <si>
+    <t>ARCOS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ROSALIA</t>
+  </si>
+  <si>
+    <t>CLAROS</t>
+  </si>
+  <si>
+    <t>CHAVARRO</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>DORIS</t>
+  </si>
+  <si>
+    <t>SEVILLA</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>LUZ</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>CITA</t>
+  </si>
+  <si>
+    <t>LOS ROBLES</t>
+  </si>
+  <si>
+    <t>MALES</t>
+  </si>
+  <si>
+    <t>SOTELO</t>
+  </si>
+  <si>
+    <t>IRMA</t>
+  </si>
+  <si>
+    <t>MONCAYO</t>
+  </si>
+  <si>
+    <t>OLMEDO</t>
+  </si>
+  <si>
+    <t>DAZA</t>
+  </si>
+  <si>
+    <t>IBARRA</t>
+  </si>
+  <si>
+    <t>ELIBER</t>
+  </si>
+  <si>
+    <t>LA ERMITA</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>MAURICIO</t>
+  </si>
+  <si>
+    <t>ERAZO</t>
+  </si>
+  <si>
+    <t>VELASQUEZ</t>
+  </si>
+  <si>
+    <t>CUENCA</t>
+  </si>
+  <si>
+    <t>LIBARDO</t>
+  </si>
+  <si>
+    <t>QUISABONI</t>
+  </si>
+  <si>
+    <t>RUBBY</t>
+  </si>
+  <si>
+    <t>ALEXANDRA</t>
+  </si>
+  <si>
+    <t>LA FLORIDA</t>
+  </si>
+  <si>
+    <t>IMBACHI</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>CUATIN</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>EL BARNIZ</t>
+  </si>
+  <si>
+    <t>ROSERO</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>REINEL</t>
+  </si>
+  <si>
+    <t>TOVAR</t>
+  </si>
+  <si>
+    <t>HOYOS</t>
+  </si>
+  <si>
+    <t>DIDIER</t>
+  </si>
+  <si>
+    <t>AGUSTO</t>
+  </si>
+  <si>
+    <t>LOS CAUCHOS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>OFIR</t>
+  </si>
+  <si>
+    <t>CAMPOELIAS</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ORDOÑEZ</t>
+  </si>
+  <si>
+    <t>RUBER</t>
+  </si>
+  <si>
+    <t>MARY</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>PEÑA</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>RAMIRO</t>
+  </si>
+  <si>
+    <t>MENESES</t>
+  </si>
+  <si>
+    <t>PEÑARANDA</t>
+  </si>
+  <si>
+    <t>ROCIO</t>
+  </si>
+  <si>
+    <t>SAN LORENZO</t>
+  </si>
+  <si>
+    <t>GLORIA</t>
+  </si>
+  <si>
+    <t>MANRIQUE</t>
+  </si>
+  <si>
+    <t>WILLIAN</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS GALAN</t>
+  </si>
+  <si>
+    <t>SECO</t>
+  </si>
+  <si>
+    <t>SOLARTE</t>
+  </si>
+  <si>
+    <t>GENTIL</t>
+  </si>
+  <si>
+    <t>EMIRO</t>
+  </si>
+  <si>
+    <t>ROSARIO</t>
+  </si>
+  <si>
+    <t>ESTERLING</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>ELIECER</t>
+  </si>
+  <si>
+    <t>COLLAZOS</t>
+  </si>
+  <si>
+    <t>LEO</t>
+  </si>
+  <si>
+    <t>MARIN</t>
+  </si>
+  <si>
+    <t>EL TABOR</t>
+  </si>
+  <si>
+    <t>PASILLA</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>JOJOA</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>MILLER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,14 +548,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8FF03654-7A9B-5442-BE2D-C1982167C8E5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,34 +869,1596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D46B30-E479-411E-9A3E-33B1E574F99E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>12345</v>
+        <v>4137</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>12143849</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>1001.3</v>
+      </c>
+      <c r="K2">
+        <v>5084441.1919999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>12144035</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>686.4</v>
+      </c>
+      <c r="K3">
+        <v>3485429.3760000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>12144481</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>751.3</v>
+      </c>
+      <c r="K4">
+        <v>3814981.1919999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>12144547</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>1143.5999999999999</v>
+      </c>
+      <c r="K5">
+        <v>5807017.824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4141</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>12144743</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>1102.0999999999999</v>
+      </c>
+      <c r="K6">
+        <v>5596287.4639999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4142</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>12180106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>866.3</v>
+      </c>
+      <c r="K7">
+        <v>4398932.7919999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>12181112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>652.79999999999995</v>
+      </c>
+      <c r="K8">
+        <v>3314813.952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>12181381</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>677.9</v>
+      </c>
+      <c r="K9">
+        <v>3442267.736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4145</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>12181767</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>626.79999999999995</v>
+      </c>
+      <c r="K10">
+        <v>3182790.1119999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>12182450</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>1040.0999999999999</v>
+      </c>
+      <c r="K11">
+        <v>5281461.3839999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4147</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>12208348</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>623.9</v>
+      </c>
+      <c r="K12">
+        <v>3168064.3760000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>12234436</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <v>992.5</v>
+      </c>
+      <c r="K13">
+        <v>5039756.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>12238507</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>1148.9000000000001</v>
+      </c>
+      <c r="K14">
+        <v>5833930.3760000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4150</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>12239051</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>989.2</v>
+      </c>
+      <c r="K15">
+        <v>5022999.3280000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>17657418</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>1112.2</v>
+      </c>
+      <c r="K16">
+        <v>5647573.648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4152</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>26564328</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>751.1</v>
+      </c>
+      <c r="K17">
+        <v>3813965.6240000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>26564528</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>587.1</v>
+      </c>
+      <c r="K18">
+        <v>2981199.8640000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>26571640</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>1072.3</v>
+      </c>
+      <c r="K19">
+        <v>5444967.8319999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4155</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>36111428</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>1122.5</v>
+      </c>
+      <c r="K20">
+        <v>5699875.4000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>55180466</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>770.6</v>
+      </c>
+      <c r="K21">
+        <v>3912983.5040000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4157</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>55183487</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>645.5</v>
+      </c>
+      <c r="K22">
+        <v>3277745.72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>6342822</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>698.3</v>
+      </c>
+      <c r="K23">
+        <v>3545855.6719999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4159</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>76258939</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <v>694.8</v>
+      </c>
+      <c r="K24">
+        <v>3528083.2319999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4160</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>79981912</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>1023.2</v>
+      </c>
+      <c r="K25">
+        <v>5195645.8880000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4161</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>83215769</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>1107.7</v>
+      </c>
+      <c r="K26">
+        <v>5624723.3680000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4162</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>83226046</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>591.29999999999995</v>
+      </c>
+      <c r="K27">
+        <v>3002526.7919999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4163</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>93200434</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28">
+        <v>762.2</v>
+      </c>
+      <c r="K28">
+        <v>3870329.6480000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4164</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>1082773059</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>658.1</v>
+      </c>
+      <c r="K29">
+        <v>3341726.5040000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4165</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>12143828</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <v>947.2</v>
+      </c>
+      <c r="K30">
+        <v>4809730.0480000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4166</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>1082773206</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <v>876.6</v>
+      </c>
+      <c r="K31">
+        <v>4451234.5440000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4167</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>1082773215</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32">
+        <v>741</v>
+      </c>
+      <c r="K32">
+        <v>3762679.44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4168</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>1082774179</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33">
+        <v>996.4</v>
+      </c>
+      <c r="K33">
+        <v>5059559.7759999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4169</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>1193162866</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34">
+        <v>1146.5999999999999</v>
+      </c>
+      <c r="K34">
+        <v>5822251.3439999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4170</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>12226179</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35">
+        <v>874</v>
+      </c>
+      <c r="K35">
+        <v>4438032.16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4171</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>12263118</v>
+      </c>
+      <c r="D36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <v>1076.0999999999999</v>
+      </c>
+      <c r="K36">
+        <v>5464263.6239999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>4172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>55182204</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37">
+        <v>996</v>
+      </c>
+      <c r="K37">
+        <v>5057528.6400000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>4173</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>83161655</v>
+      </c>
+      <c r="D38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38">
+        <v>994.4</v>
+      </c>
+      <c r="K38">
+        <v>5049404.0959999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>4174</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>12144747</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39">
+        <v>794.1</v>
+      </c>
+      <c r="K39">
+        <v>4032312.7440000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>4175</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>36287707</v>
+      </c>
+      <c r="D40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40">
+        <v>1085.9000000000001</v>
+      </c>
+      <c r="K40">
+        <v>5514026.4560000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>4176</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>55183032</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41">
+        <v>1100.9000000000001</v>
+      </c>
+      <c r="K41">
+        <v>5590194.0560000008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4177</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>10304234</v>
+      </c>
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" t="s">
+        <v>138</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42">
+        <v>978</v>
+      </c>
+      <c r="K42">
+        <v>4966127.5200000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4178</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43">
+        <v>10315106</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43">
+        <v>470.1</v>
+      </c>
+      <c r="K43">
+        <v>5084799.0420000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4179</v>
+      </c>
+      <c r="B44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44">
+        <v>1082772334</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" t="s">
+        <v>133</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44">
+        <v>322.3</v>
+      </c>
+      <c r="K44">
+        <v>3486132.1660000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>4180</v>
+      </c>
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45">
+        <v>1083866384</v>
+      </c>
+      <c r="D45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45">
+        <v>352.7</v>
+      </c>
+      <c r="K45">
+        <v>3814951.3339999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4181</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46">
+        <v>12142700</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H46" t="s">
+        <v>151</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46">
+        <v>536.9</v>
+      </c>
+      <c r="K46">
+        <v>5807335.898</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4182</v>
+      </c>
+      <c r="B47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47">
+        <v>12143853</v>
+      </c>
+      <c r="D47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47">
+        <v>1062.0999999999999</v>
+      </c>
+      <c r="K47">
+        <v>4398888.9489999991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>4183</v>
+      </c>
+      <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48">
+        <v>12144251</v>
+      </c>
+      <c r="D48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" t="s">
+        <v>110</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48">
+        <v>831.2</v>
+      </c>
+      <c r="K48">
+        <v>3442572.7279999997</v>
       </c>
     </row>
   </sheetData>

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jersondavidsanchez/PycharmProjects/web-cafiagro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EE843A-E900-5142-A440-80787491E7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAD666F-D66B-5D40-A01F-8D3CB940F37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="2460" windowWidth="24240" windowHeight="15540" xr2:uid="{248F28A4-9119-4F58-BF02-7C88DEE08585}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="159">
   <si>
     <t>TIPO</t>
   </si>
@@ -79,9 +79,6 @@
     <t>LAS ERAS</t>
   </si>
   <si>
-    <t>SAN ANGUSTIN</t>
-  </si>
-  <si>
     <t>CERON</t>
   </si>
   <si>
@@ -509,6 +506,12 @@
   </si>
   <si>
     <t>MILLER</t>
+  </si>
+  <si>
+    <t>SAN AGUSTIN</t>
+  </si>
+  <si>
+    <t>41551 | PITALITO</t>
   </si>
 </sst>
 </file>
@@ -869,15 +872,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D46B30-E479-411E-9A3E-33B1E574F99E}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4137</v>
       </c>
@@ -929,16 +935,26 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J2">
+        <f>IF(I2="PITALITO",417039,IF(I2="SAN AGUSTIN",418077,IF(I2="SANTA MARIA",412027,"")))</f>
+        <v>418077</v>
+      </c>
+      <c r="K2">
         <v>1001.3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>5084441.1919999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>41551</v>
+      </c>
+      <c r="N2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4138</v>
       </c>
@@ -949,28 +965,32 @@
         <v>12144035</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J3">
+        <f t="shared" ref="J3:J48" si="0">IF(I3="PITALITO",417039,IF(I3="SAN AGUSTIN",418077,IF(I3="SANTA MARIA",412027,"")))</f>
+        <v>418077</v>
+      </c>
+      <c r="K3">
         <v>686.4</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3485429.3760000002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4139</v>
       </c>
@@ -981,31 +1001,35 @@
         <v>12144481</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J4">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K4">
         <v>751.3</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3814981.1919999998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4140</v>
       </c>
@@ -1016,28 +1040,32 @@
         <v>12144547</v>
       </c>
       <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J5">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K5">
         <v>1143.5999999999999</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>5807017.824</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4141</v>
       </c>
@@ -1048,31 +1076,35 @@
         <v>12144743</v>
       </c>
       <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J6">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K6">
         <v>1102.0999999999999</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5596287.4639999997</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4142</v>
       </c>
@@ -1083,31 +1115,35 @@
         <v>12180106</v>
       </c>
       <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J7">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K7">
         <v>866.3</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>4398932.7919999994</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4143</v>
       </c>
@@ -1118,28 +1154,32 @@
         <v>12181112</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J8">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K8">
         <v>652.79999999999995</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>3314813.952</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4144</v>
       </c>
@@ -1150,28 +1190,32 @@
         <v>12181381</v>
       </c>
       <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J9">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K9">
         <v>677.9</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>3442267.736</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4145</v>
       </c>
@@ -1182,28 +1226,32 @@
         <v>12181767</v>
       </c>
       <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>43</v>
       </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J10">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K10">
         <v>626.79999999999995</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3182790.1119999997</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4146</v>
       </c>
@@ -1217,25 +1265,29 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J11">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K11">
         <v>1040.0999999999999</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5281461.3839999996</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4147</v>
       </c>
@@ -1246,31 +1298,35 @@
         <v>12208348</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>50</v>
       </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J12">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K12">
         <v>623.9</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>3168064.3760000002</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4148</v>
       </c>
@@ -1281,28 +1337,32 @@
         <v>12234436</v>
       </c>
       <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J13">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K13">
         <v>992.5</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>5039756.2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4149</v>
       </c>
@@ -1313,28 +1373,32 @@
         <v>12238507</v>
       </c>
       <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J14">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K14">
         <v>1148.9000000000001</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>5833930.3760000002</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4150</v>
       </c>
@@ -1345,31 +1409,35 @@
         <v>12239051</v>
       </c>
       <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>60</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>61</v>
       </c>
-      <c r="H15" t="s">
-        <v>62</v>
-      </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J15">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K15">
         <v>989.2</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>5022999.3280000007</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4151</v>
       </c>
@@ -1380,31 +1448,35 @@
         <v>17657418</v>
       </c>
       <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>65</v>
       </c>
-      <c r="G16" t="s">
-        <v>66</v>
-      </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J16">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K16">
         <v>1112.2</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>5647573.648</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4152</v>
       </c>
@@ -1415,28 +1487,32 @@
         <v>26564328</v>
       </c>
       <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>68</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>69</v>
       </c>
-      <c r="H17" t="s">
-        <v>70</v>
-      </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J17">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K17">
         <v>751.1</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3813965.6240000003</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4153</v>
       </c>
@@ -1447,28 +1523,32 @@
         <v>26564528</v>
       </c>
       <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J18">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K18">
         <v>587.1</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2981199.8640000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4154</v>
       </c>
@@ -1479,31 +1559,35 @@
         <v>26571640</v>
       </c>
       <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
         <v>74</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>75</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>76</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>77</v>
       </c>
-      <c r="H19" t="s">
-        <v>78</v>
-      </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J19">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K19">
         <v>1072.3</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>5444967.8319999995</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4155</v>
       </c>
@@ -1514,31 +1598,35 @@
         <v>36111428</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
         <v>80</v>
       </c>
-      <c r="G20" t="s">
-        <v>81</v>
-      </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J20">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K20">
         <v>1122.5</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>5699875.4000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4156</v>
       </c>
@@ -1549,28 +1637,32 @@
         <v>55180466</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s">
         <v>82</v>
       </c>
-      <c r="H21" t="s">
-        <v>83</v>
-      </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J21">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K21">
         <v>770.6</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>3912983.5040000002</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4157</v>
       </c>
@@ -1581,28 +1673,32 @@
         <v>55183487</v>
       </c>
       <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
         <v>84</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>85</v>
       </c>
-      <c r="F22" t="s">
-        <v>86</v>
-      </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J22">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K22">
         <v>645.5</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>3277745.72</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4158</v>
       </c>
@@ -1613,28 +1709,32 @@
         <v>6342822</v>
       </c>
       <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
         <v>87</v>
       </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" t="s">
-        <v>88</v>
-      </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J23">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K23">
         <v>698.3</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>3545855.6719999998</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4159</v>
       </c>
@@ -1645,28 +1745,32 @@
         <v>76258939</v>
       </c>
       <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
         <v>89</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>90</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>91</v>
       </c>
-      <c r="H24" t="s">
-        <v>92</v>
-      </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J24">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K24">
         <v>694.8</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>3528083.2319999998</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4160</v>
       </c>
@@ -1677,31 +1781,35 @@
         <v>79981912</v>
       </c>
       <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
         <v>93</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>94</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>95</v>
       </c>
-      <c r="G25" t="s">
-        <v>96</v>
-      </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J25">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K25">
         <v>1023.2</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>5195645.8880000003</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4161</v>
       </c>
@@ -1712,28 +1820,32 @@
         <v>83215769</v>
       </c>
       <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
         <v>52</v>
       </c>
-      <c r="E26" t="s">
-        <v>53</v>
-      </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J26">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K26">
         <v>1107.7</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>5624723.3680000007</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4162</v>
       </c>
@@ -1744,31 +1856,35 @@
         <v>83226046</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J27">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K27">
         <v>591.29999999999995</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>3002526.7919999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4163</v>
       </c>
@@ -1779,28 +1895,32 @@
         <v>93200434</v>
       </c>
       <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
         <v>99</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>100</v>
       </c>
-      <c r="F28" t="s">
-        <v>101</v>
-      </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J28">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K28">
         <v>762.2</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>3870329.6480000005</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4164</v>
       </c>
@@ -1811,31 +1931,35 @@
         <v>1082773059</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" t="s">
         <v>102</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>103</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>104</v>
       </c>
-      <c r="H29" t="s">
-        <v>105</v>
-      </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J29">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K29">
         <v>658.1</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>3341726.5040000002</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4165</v>
       </c>
@@ -1846,28 +1970,32 @@
         <v>12143828</v>
       </c>
       <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
         <v>106</v>
       </c>
-      <c r="E30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" t="s">
-        <v>107</v>
-      </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J30">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K30">
         <v>947.2</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>4809730.0480000004</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4166</v>
       </c>
@@ -1878,31 +2006,35 @@
         <v>1082773206</v>
       </c>
       <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
         <v>108</v>
       </c>
-      <c r="E31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" t="s">
         <v>109</v>
       </c>
-      <c r="G31" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" t="s">
-        <v>110</v>
-      </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J31">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K31">
         <v>876.6</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>4451234.5440000007</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4167</v>
       </c>
@@ -1913,28 +2045,32 @@
         <v>1082773215</v>
       </c>
       <c r="D32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" t="s">
         <v>111</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>112</v>
       </c>
-      <c r="F32" t="s">
-        <v>113</v>
-      </c>
       <c r="H32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J32">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K32">
         <v>741</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>3762679.44</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4168</v>
       </c>
@@ -1945,31 +2081,35 @@
         <v>1082774179</v>
       </c>
       <c r="D33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s">
         <v>114</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>115</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>116</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>117</v>
       </c>
-      <c r="H33" t="s">
-        <v>118</v>
-      </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J33">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K33">
         <v>996.4</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>5059559.7759999996</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4169</v>
       </c>
@@ -1980,25 +2120,29 @@
         <v>1193162866</v>
       </c>
       <c r="D34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" t="s">
         <v>119</v>
-      </c>
-      <c r="F34" t="s">
-        <v>120</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J34">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K34">
         <v>1146.5999999999999</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>5822251.3439999996</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4170</v>
       </c>
@@ -2009,25 +2153,29 @@
         <v>12226179</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J35">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K35">
         <v>874</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>4438032.16</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4171</v>
       </c>
@@ -2038,28 +2186,32 @@
         <v>12263118</v>
       </c>
       <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" t="s">
         <v>122</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>123</v>
       </c>
-      <c r="F36" t="s">
-        <v>124</v>
-      </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J36">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K36">
         <v>1076.0999999999999</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>5464263.6239999998</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4172</v>
       </c>
@@ -2070,31 +2222,35 @@
         <v>55182204</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J37">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K37">
         <v>996</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>5057528.6400000006</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4173</v>
       </c>
@@ -2105,31 +2261,35 @@
         <v>83161655</v>
       </c>
       <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
         <v>126</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>127</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>128</v>
       </c>
-      <c r="G38" t="s">
-        <v>129</v>
-      </c>
       <c r="H38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J38">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K38">
         <v>994.4</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>5049404.0959999999</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4174</v>
       </c>
@@ -2140,31 +2300,35 @@
         <v>12144747</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J39">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K39">
         <v>794.1</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>4032312.7440000004</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4175</v>
       </c>
@@ -2175,28 +2339,32 @@
         <v>36287707</v>
       </c>
       <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
         <v>130</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>131</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>132</v>
       </c>
-      <c r="H40" t="s">
-        <v>133</v>
-      </c>
       <c r="I40" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J40">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K40">
         <v>1085.9000000000001</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>5514026.4560000002</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4176</v>
       </c>
@@ -2207,28 +2375,32 @@
         <v>55183032</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J41">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K41">
         <v>1100.9000000000001</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>5590194.0560000008</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4177</v>
       </c>
@@ -2239,135 +2411,151 @@
         <v>10304234</v>
       </c>
       <c r="D42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" t="s">
         <v>135</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>136</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>137</v>
       </c>
-      <c r="H42" t="s">
-        <v>138</v>
-      </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J42">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K42">
         <v>978</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>4966127.5200000005</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4178</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43">
         <v>10315106</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" t="s">
         <v>140</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>141</v>
       </c>
-      <c r="G43" t="s">
-        <v>142</v>
-      </c>
       <c r="H43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J43">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K43">
         <v>470.1</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>5084799.0420000004</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4179</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C44">
         <v>1082772334</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J44">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K44">
         <v>322.3</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>3486132.1660000002</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4180</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C45">
         <v>1083866384</v>
       </c>
       <c r="D45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" t="s">
         <v>144</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>145</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>146</v>
       </c>
-      <c r="G45" t="s">
-        <v>147</v>
-      </c>
       <c r="H45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J45">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K45">
         <v>352.7</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>3814951.3339999998</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4181</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46">
         <v>12142700</v>
@@ -2376,88 +2564,100 @@
         <v>10</v>
       </c>
       <c r="E46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" t="s">
         <v>148</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>149</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>150</v>
       </c>
-      <c r="H46" t="s">
-        <v>151</v>
-      </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J46">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K46">
         <v>536.9</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>5807335.898</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4182</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C47">
         <v>12143853</v>
       </c>
       <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" t="s">
         <v>153</v>
       </c>
-      <c r="F47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" t="s">
-        <v>154</v>
-      </c>
       <c r="H47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J47">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K47">
         <v>1062.0999999999999</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>4398888.9489999991</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4183</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C48">
         <v>12144251</v>
       </c>
       <c r="D48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" t="s">
         <v>155</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>156</v>
       </c>
-      <c r="F48" t="s">
-        <v>157</v>
-      </c>
       <c r="H48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="J48">
+        <f t="shared" si="0"/>
+        <v>418077</v>
+      </c>
+      <c r="K48">
         <v>831.2</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>3442572.7279999997</v>
       </c>
     </row>

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jersondavidsanchez/PycharmProjects/web-cafiagro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAD666F-D66B-5D40-A01F-8D3CB940F37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB37CBD-0107-BA4C-ADED-25D60E36DB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="2460" windowWidth="24240" windowHeight="15540" xr2:uid="{248F28A4-9119-4F58-BF02-7C88DEE08585}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>MUNICIPIO</t>
   </si>
   <si>
-    <t>CANT KILOS</t>
-  </si>
-  <si>
     <t>MOJADO</t>
   </si>
   <si>
@@ -512,6 +509,9 @@
   </si>
   <si>
     <t>41551 | PITALITO</t>
+  </si>
+  <si>
+    <t>cod postal</t>
   </si>
 </sst>
 </file>
@@ -875,7 +875,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -909,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -917,25 +917,25 @@
         <v>4137</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>12143849</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J2">
         <f>IF(I2="PITALITO",417039,IF(I2="SAN AGUSTIN",418077,IF(I2="SANTA MARIA",412027,"")))</f>
@@ -951,7 +951,7 @@
         <v>41551</v>
       </c>
       <c r="N2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -959,25 +959,25 @@
         <v>4138</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>12144035</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J48" si="0">IF(I3="PITALITO",417039,IF(I3="SAN AGUSTIN",418077,IF(I3="SANTA MARIA",412027,"")))</f>
@@ -995,28 +995,28 @@
         <v>4139</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>12144481</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
@@ -1034,25 +1034,25 @@
         <v>4140</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>12144547</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
       <c r="I5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
@@ -1070,28 +1070,28 @@
         <v>4141</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>12144743</v>
       </c>
       <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
       <c r="I6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
@@ -1109,28 +1109,28 @@
         <v>4142</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>12180106</v>
       </c>
       <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
       <c r="I7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
@@ -1148,25 +1148,25 @@
         <v>4143</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>12181112</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
@@ -1184,25 +1184,25 @@
         <v>4144</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>12181381</v>
       </c>
       <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
@@ -1220,25 +1220,25 @@
         <v>4145</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>12181767</v>
       </c>
       <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>42</v>
       </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
@@ -1256,25 +1256,25 @@
         <v>4146</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>12182450</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>45</v>
       </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
       <c r="I11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
@@ -1292,28 +1292,28 @@
         <v>4147</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>12208348</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
         <v>47</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>48</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>49</v>
       </c>
-      <c r="H12" t="s">
-        <v>50</v>
-      </c>
       <c r="I12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
@@ -1331,25 +1331,25 @@
         <v>4148</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>12234436</v>
       </c>
       <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
@@ -1367,25 +1367,25 @@
         <v>4149</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>12238507</v>
       </c>
       <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>55</v>
       </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
@@ -1403,28 +1403,28 @@
         <v>4150</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>12239051</v>
       </c>
       <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>60</v>
       </c>
-      <c r="H15" t="s">
-        <v>61</v>
-      </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
@@ -1442,28 +1442,28 @@
         <v>4151</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>17657418</v>
       </c>
       <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
         <v>62</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>63</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>64</v>
       </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
@@ -1481,25 +1481,25 @@
         <v>4152</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>26564328</v>
       </c>
       <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
         <v>66</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>67</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>68</v>
       </c>
-      <c r="H17" t="s">
-        <v>69</v>
-      </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
@@ -1517,25 +1517,25 @@
         <v>4153</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>26564528</v>
       </c>
       <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>71</v>
       </c>
-      <c r="F18" t="s">
-        <v>72</v>
-      </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
@@ -1553,28 +1553,28 @@
         <v>4154</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>26571640</v>
       </c>
       <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
         <v>73</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>74</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>75</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>76</v>
       </c>
-      <c r="H19" t="s">
-        <v>77</v>
-      </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
@@ -1592,28 +1592,28 @@
         <v>4155</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>36111428</v>
       </c>
       <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
         <v>78</v>
       </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>79</v>
       </c>
-      <c r="G20" t="s">
-        <v>80</v>
-      </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
@@ -1631,25 +1631,25 @@
         <v>4156</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>55180466</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
         <v>81</v>
       </c>
-      <c r="H21" t="s">
-        <v>82</v>
-      </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
@@ -1667,25 +1667,25 @@
         <v>4157</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>55183487</v>
       </c>
       <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
         <v>83</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>84</v>
       </c>
-      <c r="F22" t="s">
-        <v>85</v>
-      </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
@@ -1703,25 +1703,25 @@
         <v>4158</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>6342822</v>
       </c>
       <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
         <v>86</v>
       </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" t="s">
-        <v>87</v>
-      </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
@@ -1739,25 +1739,25 @@
         <v>4159</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>76258939</v>
       </c>
       <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
         <v>88</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>89</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>90</v>
       </c>
-      <c r="H24" t="s">
-        <v>91</v>
-      </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
@@ -1775,28 +1775,28 @@
         <v>4160</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>79981912</v>
       </c>
       <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
         <v>92</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>93</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>94</v>
       </c>
-      <c r="G25" t="s">
-        <v>95</v>
-      </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
@@ -1814,25 +1814,25 @@
         <v>4161</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>83215769</v>
       </c>
       <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
         <v>51</v>
       </c>
-      <c r="E26" t="s">
-        <v>52</v>
-      </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
@@ -1850,28 +1850,28 @@
         <v>4162</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>83226046</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
@@ -1889,25 +1889,25 @@
         <v>4163</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>93200434</v>
       </c>
       <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
         <v>98</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>99</v>
       </c>
-      <c r="F28" t="s">
-        <v>100</v>
-      </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
@@ -1925,28 +1925,28 @@
         <v>4164</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>1082773059</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" t="s">
         <v>101</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>102</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>103</v>
       </c>
-      <c r="H29" t="s">
-        <v>104</v>
-      </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
@@ -1964,25 +1964,25 @@
         <v>4165</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>12143828</v>
       </c>
       <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
         <v>105</v>
       </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>106</v>
-      </c>
       <c r="H30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
@@ -2000,28 +2000,28 @@
         <v>4166</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>1082773206</v>
       </c>
       <c r="D31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
         <v>107</v>
       </c>
-      <c r="E31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" t="s">
         <v>108</v>
       </c>
-      <c r="G31" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" t="s">
-        <v>109</v>
-      </c>
       <c r="I31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
@@ -2039,25 +2039,25 @@
         <v>4167</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>1082773215</v>
       </c>
       <c r="D32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
         <v>110</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>111</v>
       </c>
-      <c r="F32" t="s">
-        <v>112</v>
-      </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
@@ -2075,28 +2075,28 @@
         <v>4168</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>1082774179</v>
       </c>
       <c r="D33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" t="s">
         <v>113</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>114</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>115</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>116</v>
       </c>
-      <c r="H33" t="s">
-        <v>117</v>
-      </c>
       <c r="I33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
@@ -2114,22 +2114,22 @@
         <v>4169</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34">
         <v>1193162866</v>
       </c>
       <c r="D34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" t="s">
         <v>118</v>
       </c>
-      <c r="F34" t="s">
-        <v>119</v>
-      </c>
       <c r="H34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
@@ -2147,22 +2147,22 @@
         <v>4170</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35">
         <v>12226179</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
@@ -2180,25 +2180,25 @@
         <v>4171</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36">
         <v>12263118</v>
       </c>
       <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
         <v>121</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>122</v>
       </c>
-      <c r="F36" t="s">
-        <v>123</v>
-      </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
@@ -2216,28 +2216,28 @@
         <v>4172</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>55182204</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
@@ -2255,28 +2255,28 @@
         <v>4173</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>83161655</v>
       </c>
       <c r="D38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
         <v>125</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>126</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>127</v>
       </c>
-      <c r="G38" t="s">
-        <v>128</v>
-      </c>
       <c r="H38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
@@ -2294,28 +2294,28 @@
         <v>4174</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>12144747</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
@@ -2333,25 +2333,25 @@
         <v>4175</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>36287707</v>
       </c>
       <c r="D40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" t="s">
         <v>129</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>130</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>131</v>
       </c>
-      <c r="H40" t="s">
-        <v>132</v>
-      </c>
       <c r="I40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
@@ -2369,25 +2369,25 @@
         <v>4176</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41">
         <v>55183032</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
@@ -2405,25 +2405,25 @@
         <v>4177</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42">
         <v>10304234</v>
       </c>
       <c r="D42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" t="s">
         <v>134</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>135</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>136</v>
       </c>
-      <c r="H42" t="s">
-        <v>137</v>
-      </c>
       <c r="I42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
@@ -2441,28 +2441,28 @@
         <v>4178</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43">
         <v>10315106</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" t="s">
         <v>139</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>140</v>
       </c>
-      <c r="G43" t="s">
-        <v>141</v>
-      </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
@@ -2480,25 +2480,25 @@
         <v>4179</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44">
         <v>1082772334</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
@@ -2516,28 +2516,28 @@
         <v>4180</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45">
         <v>1083866384</v>
       </c>
       <c r="D45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" t="s">
         <v>143</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>144</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>145</v>
       </c>
-      <c r="G45" t="s">
-        <v>146</v>
-      </c>
       <c r="H45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
@@ -2555,28 +2555,28 @@
         <v>4181</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46">
         <v>12142700</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" t="s">
         <v>147</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>148</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>149</v>
       </c>
-      <c r="H46" t="s">
-        <v>150</v>
-      </c>
       <c r="I46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
@@ -2594,25 +2594,25 @@
         <v>4182</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C47">
         <v>12143853</v>
       </c>
       <c r="D47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" t="s">
         <v>152</v>
       </c>
-      <c r="F47" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" t="s">
-        <v>153</v>
-      </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
@@ -2630,25 +2630,25 @@
         <v>4183</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48">
         <v>12144251</v>
       </c>
       <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" t="s">
         <v>154</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>155</v>
       </c>
-      <c r="F48" t="s">
-        <v>156</v>
-      </c>
       <c r="H48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
